--- a/railway/count.xlsx
+++ b/railway/count.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="1120" windowWidth="26160" windowHeight="34280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4760" yWindow="440" windowWidth="26160" windowHeight="34280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -1320,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B56"/>
+      <selection sqref="A1:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1650,130 +1650,66 @@
     </row>
     <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B42" s="4">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43" s="4">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" s="4">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B45" s="4">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B47" s="4">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B48" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="4">
         <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="4">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/railway/count.xlsx
+++ b/railway/count.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="440" windowWidth="26160" windowHeight="34280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -431,16 +431,6 @@
     <t>达州</t>
     <rPh sb="0" eb="1">
       <t>dpyt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通地级市</t>
-    <rPh sb="0" eb="1">
-      <t>uoce</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fxym</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,7 +481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -514,37 +504,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -557,12 +521,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,11 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B57"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1231,87 +1188,78 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="6"/>
+      <c r="A48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="4">
+        <v>130</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B49" s="4">
-        <v>130</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B50" s="4">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B51" s="4">
-        <v>68</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B52" s="4">
-        <v>159</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B53" s="4">
-        <v>246</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B56" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="4">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A48:B48"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1322,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B48"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/railway/count.xlsx
+++ b/railway/count.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22840" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -219,13 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>襄阳</t>
-    <rPh sb="0" eb="1">
-      <t>ykbj</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南宁</t>
     <rPh sb="0" eb="1">
       <t>fmps</t>
@@ -233,13 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宜宾</t>
-    <rPh sb="0" eb="1">
-      <t>pepr</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>昆明</t>
     <rPh sb="0" eb="1">
       <t>jxje</t>
@@ -306,30 +292,6 @@
     <t>无锡</t>
     <rPh sb="0" eb="1">
       <t>fqqj</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阜阳</t>
-    <rPh sb="0" eb="1">
-      <t>wnbj</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九江</t>
-    <rPh sb="0" eb="1">
-      <t>vt</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ia</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜昌</t>
-    <rPh sb="0" eb="1">
-      <t>pejj</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,13 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商丘</t>
-    <rPh sb="0" eb="1">
-      <t>shang'qiu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上饶</t>
     <rPh sb="0" eb="1">
       <t>sang'rao</t>
@@ -421,16 +376,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赣州</t>
-    <rPh sb="0" eb="1">
-      <t>gan'zhou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达州</t>
-    <rPh sb="0" eb="1">
-      <t>dpyt</t>
+    <t>始发车次</t>
+    <rPh sb="0" eb="1">
+      <t>vcnt</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lguq</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -799,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -811,452 +762,448 @@
     <col min="2" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1080</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1027</v>
+      </c>
+      <c r="C3" s="4">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>693</v>
+      </c>
+      <c r="C4" s="4">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="C5" s="4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+      <c r="C6" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7" s="4">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="C7" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="C8" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+      <c r="C9" s="4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="4">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>842</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="4">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="4">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="4">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="4">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B23" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="4">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="4">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>658</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="4">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="4">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="4">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>794</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="4">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="4">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1216</v>
+      </c>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="4">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B34" s="4">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <f>310+346</f>
+        <v>656</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="4">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="4">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="4">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="4">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B42" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="4">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="4">
+        <v>302</v>
+      </c>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="4">
+        <v>51</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="4">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="B46" s="4">
+        <v>130</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="4">
+      <c r="B47" s="4">
+        <v>120</v>
+      </c>
+      <c r="C47" s="4">
         <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="4">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="4">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="4">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="4">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="4">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -1281,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -1350,7 +1297,7 @@
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4">
         <v>624</v>
@@ -1390,7 +1337,7 @@
     </row>
     <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="4">
         <v>476</v>
@@ -1422,7 +1369,7 @@
     </row>
     <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4">
         <v>412</v>
@@ -1438,7 +1385,7 @@
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4">
         <v>392</v>
@@ -1446,7 +1393,7 @@
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B22" s="4">
         <v>366</v>
@@ -1478,7 +1425,7 @@
     </row>
     <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B26" s="4">
         <v>341</v>
@@ -1486,7 +1433,7 @@
     </row>
     <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4">
         <v>330</v>
@@ -1502,7 +1449,7 @@
     </row>
     <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4">
         <v>328</v>
@@ -1526,7 +1473,7 @@
     </row>
     <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4">
         <v>287</v>
@@ -1542,7 +1489,7 @@
     </row>
     <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B34" s="4">
         <v>246</v>
@@ -1558,7 +1505,7 @@
     </row>
     <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4">
         <v>242</v>
@@ -1574,7 +1521,7 @@
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4">
         <v>196</v>
@@ -1590,7 +1537,7 @@
     </row>
     <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4">
         <v>168</v>
@@ -1598,7 +1545,7 @@
     </row>
     <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4">
         <v>135</v>
@@ -1606,7 +1553,7 @@
     </row>
     <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4">
         <v>112</v>
@@ -1614,7 +1561,7 @@
     </row>
     <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B43" s="4">
         <v>106</v>
@@ -1622,7 +1569,7 @@
     </row>
     <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B44" s="4">
         <v>101</v>
@@ -1630,7 +1577,7 @@
     </row>
     <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B45" s="4">
         <v>93</v>
@@ -1638,7 +1585,7 @@
     </row>
     <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4">
         <v>39</v>
@@ -1646,7 +1593,7 @@
     </row>
     <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B47" s="4">
         <v>35</v>
@@ -1654,7 +1601,7 @@
     </row>
     <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B48" s="4">
         <v>14</v>

--- a/railway/count.xlsx
+++ b/railway/count.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>北京</t>
     <rPh sb="0" eb="1">
@@ -369,19 +369,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上饶</t>
-    <rPh sb="0" eb="1">
-      <t>sang'rao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>始发车次</t>
     <rPh sb="0" eb="1">
       <t>vcnt</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>lguq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过路车次</t>
+    <rPh sb="0" eb="1">
+      <t>fpkh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lguq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <rPh sb="0" eb="1">
+      <t>tjwv</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,6 +400,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -459,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -471,6 +484,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,19 +772,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="10.83203125" style="7"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -770,10 +795,16 @@
         <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -783,8 +814,15 @@
       <c r="C2" s="4">
         <v>1046</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="4">
+        <f>B2-C2</f>
+        <v>34</v>
+      </c>
+      <c r="E2" s="6">
+        <v>98.334875115633693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -794,8 +832,15 @@
       <c r="C3" s="4">
         <v>926</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D47" si="0">B3-C3</f>
+        <v>101</v>
+      </c>
+      <c r="E3" s="6">
+        <v>90.333024976873276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -805,8 +850,15 @@
       <c r="C4" s="4">
         <v>337</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+      <c r="E4" s="6">
+        <v>47.641073080481036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -816,8 +868,15 @@
       <c r="C5" s="4">
         <v>287</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="E5" s="6">
+        <v>32.331174838112865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -827,8 +886,15 @@
       <c r="C6" s="4">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="E6" s="6">
+        <v>28.862164662349681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -838,8 +904,15 @@
       <c r="C7" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="E7" s="6">
+        <v>12.904717853839038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -849,8 +922,15 @@
       <c r="C8" s="4">
         <v>185</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E8" s="6">
+        <v>20.721554116558742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -860,233 +940,465 @@
       <c r="C9" s="4">
         <v>232</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+      <c r="E9" s="6">
+        <v>43.570767807585575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="4">
         <v>511</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="4">
+        <v>192</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+      <c r="E10" s="6">
+        <v>32.516188714153571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="4">
         <v>205</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="4">
+        <v>201</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>18.778908418131362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="4">
         <v>388</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="4">
+        <v>173</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="E12" s="6">
+        <v>25.948196114708605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="4">
         <v>342</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="4">
+        <v>226</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="E13" s="6">
+        <v>26.271970397779835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="4">
         <v>136</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="4">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E14" s="6">
+        <v>8.7419056429232214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4">
         <v>842</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="4">
+        <v>258</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>584</v>
+      </c>
+      <c r="E15" s="6">
+        <v>50.878815911193342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="4">
         <v>398</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>394</v>
+      </c>
+      <c r="E16" s="6">
+        <v>18.593894542090659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="4">
         <v>514</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="E17" s="6">
+        <v>23.959296947271046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="4">
         <v>487</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="4">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>443</v>
+      </c>
+      <c r="E18" s="6">
+        <v>24.560592044403336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="4">
         <v>46</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="4">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.255319148936171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="4">
         <v>380</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="4">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+      <c r="E20" s="6">
+        <v>18.131359851988901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="4">
         <v>464</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="4">
+        <v>104</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="E21" s="6">
+        <v>26.271970397779832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="4">
         <v>184</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="4">
+        <v>155</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E22" s="6">
+        <v>15.679925994449583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="4">
         <v>114</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="4">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E23" s="6">
+        <v>7.6780758556891779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="4">
         <v>381</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="4">
+        <v>146</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="E24" s="6">
+        <v>24.37557816836263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="4">
         <v>658</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="4">
+        <v>161</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>497</v>
+      </c>
+      <c r="E25" s="6">
+        <v>37.881591119333955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="4">
         <v>227</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="4">
+        <v>104</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="E26" s="6">
+        <v>15.309898242368179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4">
         <v>313</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="4">
+        <v>183</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="E27" s="6">
+        <v>22.941720629047179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="4">
         <v>317</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="4">
+        <v>196</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="E28" s="6">
+        <v>23.728029602220168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B29" s="4">
         <v>198</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="4">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="E29" s="6">
+        <v>9.4357076780758575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="4">
         <v>794</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="4">
+        <v>362</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="E30" s="6">
+        <v>53.469010175763188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="4">
         <v>697</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="4">
+        <v>280</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>417</v>
+      </c>
+      <c r="E31" s="6">
+        <v>45.189639222941722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="4">
         <v>1216</v>
       </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="4">
+        <v>946</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="E32" s="6">
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="4">
         <v>732</v>
       </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="4">
+        <v>608</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="E33" s="6">
+        <v>61.979648473635528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="4">
         <v>224</v>
       </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="4">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="E34" s="6">
+        <v>12.210915818686402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -1094,108 +1406,216 @@
         <f>310+346</f>
         <v>656</v>
       </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="4">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>646</v>
+      </c>
+      <c r="E35" s="6">
+        <v>30.804810360777065</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="4">
         <v>329</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="4">
+        <v>209</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E36" s="6">
+        <v>24.884366327474563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="4">
         <v>468</v>
       </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="4">
+        <v>190</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="E37" s="6">
+        <v>30.434782608695652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="4">
         <v>441</v>
       </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="4">
+        <v>400</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E38" s="6">
+        <v>38.899167437557814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="4">
         <v>342</v>
       </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="4">
+        <v>162</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E39" s="6">
+        <v>23.311748381128584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B40" s="4">
         <v>296</v>
       </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="4">
+        <v>245</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E40" s="6">
+        <v>25.023126734505091</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="4">
         <v>18</v>
       </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="4">
+        <v>16</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1.5726179463459762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="4">
         <v>90</v>
       </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="4">
+        <v>63</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E42" s="6">
+        <v>7.0767807585568923</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="4">
         <v>547</v>
       </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="4">
+        <v>359</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="E43" s="6">
+        <v>41.90564292321924</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="4">
         <v>302</v>
       </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="4">
+        <v>158</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="E44" s="6">
+        <v>21.276595744680851</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="4">
         <v>51</v>
       </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="4">
+        <v>36</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E45" s="6">
+        <v>4.0240518038852908</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="4">
         <v>130</v>
       </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="4">
+        <v>74</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E46" s="6">
+        <v>9.4357076780758575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>33</v>
       </c>
@@ -1204,6 +1624,13 @@
       </c>
       <c r="C47" s="4">
         <v>93</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E47" s="6">
+        <v>9.8519888991674378</v>
       </c>
     </row>
   </sheetData>
@@ -1215,401 +1642,866 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>1216</v>
+      </c>
+      <c r="C2" s="4">
+        <v>946</v>
+      </c>
+      <c r="D2" s="4">
+        <f>B2-C2</f>
+        <v>270</v>
+      </c>
+      <c r="E2" s="6">
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>1080</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1046</v>
+      </c>
+      <c r="D3" s="4">
+        <f>B3-C3</f>
+        <v>34</v>
+      </c>
+      <c r="E3" s="6">
+        <v>98.334875115633693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>1027</v>
+      </c>
+      <c r="C4" s="4">
+        <v>926</v>
+      </c>
+      <c r="D4" s="4">
+        <f>B4-C4</f>
+        <v>101</v>
+      </c>
+      <c r="E4" s="6">
+        <v>90.333024976873276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>732</v>
+      </c>
+      <c r="C5" s="4">
+        <v>608</v>
+      </c>
+      <c r="D5" s="4">
+        <f>B5-C5</f>
+        <v>124</v>
+      </c>
+      <c r="E5" s="6">
+        <v>61.979648473635528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>794</v>
+      </c>
+      <c r="C6" s="4">
+        <v>362</v>
+      </c>
+      <c r="D6" s="4">
+        <f>B6-C6</f>
+        <v>432</v>
+      </c>
+      <c r="E6" s="6">
+        <v>53.469010175763188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>842</v>
+      </c>
+      <c r="C7" s="4">
+        <v>258</v>
+      </c>
+      <c r="D7" s="4">
+        <f>B7-C7</f>
+        <v>584</v>
+      </c>
+      <c r="E7" s="6">
+        <v>50.878815911193342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>693</v>
+      </c>
+      <c r="C8" s="4">
+        <v>337</v>
+      </c>
+      <c r="D8" s="4">
+        <f>B8-C8</f>
+        <v>356</v>
+      </c>
+      <c r="E8" s="6">
+        <v>47.641073080481036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="B9" s="4">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>697</v>
+      </c>
+      <c r="C9" s="4">
+        <v>280</v>
+      </c>
+      <c r="D9" s="4">
+        <f>B9-C9</f>
+        <v>417</v>
+      </c>
+      <c r="E9" s="6">
+        <v>45.189639222941722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>710</v>
+      </c>
+      <c r="C10" s="4">
+        <v>232</v>
+      </c>
+      <c r="D10" s="4">
+        <f>B10-C10</f>
+        <v>478</v>
+      </c>
+      <c r="E10" s="6">
+        <v>43.570767807585575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>547</v>
+      </c>
+      <c r="C11" s="4">
+        <v>359</v>
+      </c>
+      <c r="D11" s="4">
+        <f>B11-C11</f>
+        <v>188</v>
+      </c>
+      <c r="E11" s="6">
+        <v>41.90564292321924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>441</v>
+      </c>
+      <c r="C12" s="4">
+        <v>400</v>
+      </c>
+      <c r="D12" s="4">
+        <f>B12-C12</f>
+        <v>41</v>
+      </c>
+      <c r="E12" s="6">
+        <v>38.899167437557814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>658</v>
+      </c>
+      <c r="C13" s="4">
+        <v>161</v>
+      </c>
+      <c r="D13" s="4">
+        <f>B13-C13</f>
+        <v>497</v>
+      </c>
+      <c r="E13" s="6">
+        <v>37.881591119333955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <v>511</v>
+      </c>
+      <c r="C14" s="4">
+        <v>192</v>
+      </c>
+      <c r="D14" s="4">
+        <f>B14-C14</f>
+        <v>319</v>
+      </c>
+      <c r="E14" s="6">
+        <v>32.516188714153571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4">
+        <v>412</v>
+      </c>
+      <c r="C15" s="4">
+        <v>287</v>
+      </c>
+      <c r="D15" s="4">
+        <f>B15-C15</f>
+        <v>125</v>
+      </c>
+      <c r="E15" s="6">
+        <v>32.331174838112865</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="B16" s="4">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <f>310+346</f>
+        <v>656</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <f>B16-C16</f>
+        <v>646</v>
+      </c>
+      <c r="E16" s="6">
+        <v>30.804810360777065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="C17" s="4">
+        <v>190</v>
+      </c>
+      <c r="D17" s="4">
+        <f>B17-C17</f>
+        <v>278</v>
+      </c>
+      <c r="E17" s="6">
+        <v>30.434782608695652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+      <c r="C18" s="4">
+        <v>101</v>
+      </c>
+      <c r="D18" s="4">
+        <f>B18-C18</f>
+        <v>422</v>
+      </c>
+      <c r="E18" s="6">
+        <v>28.862164662349681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" s="4">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="C19" s="4">
+        <v>226</v>
+      </c>
+      <c r="D19" s="4">
+        <f>B19-C19</f>
+        <v>116</v>
+      </c>
+      <c r="E19" s="6">
+        <v>26.271970397779835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="C20" s="4">
+        <v>104</v>
+      </c>
+      <c r="D20" s="4">
+        <f>B20-C20</f>
+        <v>360</v>
+      </c>
+      <c r="E20" s="6">
+        <v>26.271970397779832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4">
+        <v>388</v>
+      </c>
+      <c r="C21" s="4">
+        <v>173</v>
+      </c>
+      <c r="D21" s="4">
+        <f>B21-C21</f>
+        <v>215</v>
+      </c>
+      <c r="E21" s="6">
+        <v>25.948196114708605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="4">
+        <v>296</v>
+      </c>
+      <c r="C22" s="4">
+        <v>245</v>
+      </c>
+      <c r="D22" s="4">
+        <f>B22-C22</f>
+        <v>51</v>
+      </c>
+      <c r="E22" s="6">
+        <v>25.023126734505091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="4">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B23" s="4">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="C23" s="4">
+        <v>209</v>
+      </c>
+      <c r="D23" s="4">
+        <f>B23-C23</f>
+        <v>120</v>
+      </c>
+      <c r="E23" s="6">
+        <v>24.884366327474563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+      <c r="C24" s="4">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4">
+        <f>B24-C24</f>
+        <v>443</v>
+      </c>
+      <c r="E24" s="6">
+        <v>24.560592044403336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B25" s="4">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="C25" s="4">
+        <v>146</v>
+      </c>
+      <c r="D25" s="4">
+        <f>B25-C25</f>
+        <v>235</v>
+      </c>
+      <c r="E25" s="6">
+        <v>24.37557816836263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B26" s="4">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4</v>
+      </c>
+      <c r="D26" s="4">
+        <f>B26-C26</f>
+        <v>510</v>
+      </c>
+      <c r="E26" s="6">
+        <v>23.959296947271046</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="4">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="C27" s="4">
+        <v>196</v>
+      </c>
+      <c r="D27" s="4">
+        <f>B27-C27</f>
+        <v>121</v>
+      </c>
+      <c r="E27" s="6">
+        <v>23.728029602220168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B28" s="4">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="C28" s="4">
+        <v>162</v>
+      </c>
+      <c r="D28" s="4">
+        <f>B28-C28</f>
+        <v>180</v>
+      </c>
+      <c r="E28" s="6">
+        <v>23.311748381128584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" s="4">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="C29" s="4">
+        <v>183</v>
+      </c>
+      <c r="D29" s="4">
+        <f>B29-C29</f>
+        <v>130</v>
+      </c>
+      <c r="E29" s="6">
+        <v>22.941720629047179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="C30" s="4">
+        <v>158</v>
+      </c>
+      <c r="D30" s="4">
+        <f>B30-C30</f>
+        <v>144</v>
+      </c>
+      <c r="E30" s="6">
+        <v>21.276595744680851</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B31" s="4">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="C31" s="4">
+        <v>185</v>
+      </c>
+      <c r="D31" s="4">
+        <f>B31-C31</f>
+        <v>78</v>
+      </c>
+      <c r="E31" s="6">
+        <v>20.721554116558742</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B32" s="4">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="C32" s="4">
+        <v>201</v>
+      </c>
+      <c r="D32" s="4">
+        <f>B32-C32</f>
+        <v>4</v>
+      </c>
+      <c r="E32" s="6">
+        <v>18.778908418131362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4">
+        <v>398</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4">
+        <f>B33-C33</f>
+        <v>394</v>
+      </c>
+      <c r="E33" s="6">
+        <v>18.593894542090659</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="4">
+        <v>380</v>
+      </c>
+      <c r="C34" s="4">
+        <v>12</v>
+      </c>
+      <c r="D34" s="4">
+        <f>B34-C34</f>
+        <v>368</v>
+      </c>
+      <c r="E34" s="6">
+        <v>18.131359851988901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="4">
+        <v>184</v>
+      </c>
+      <c r="C35" s="4">
+        <v>155</v>
+      </c>
+      <c r="D35" s="4">
+        <f>B35-C35</f>
+        <v>29</v>
+      </c>
+      <c r="E35" s="6">
+        <v>15.679925994449583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="4">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="4">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="4">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="B36" s="4">
+        <v>227</v>
+      </c>
+      <c r="C36" s="4">
+        <v>104</v>
+      </c>
+      <c r="D36" s="4">
+        <f>B36-C36</f>
+        <v>123</v>
+      </c>
+      <c r="E36" s="6">
+        <v>15.309898242368179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4">
+        <v>262</v>
+      </c>
+      <c r="C37" s="4">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4">
+        <f>B37-C37</f>
+        <v>245</v>
+      </c>
+      <c r="E37" s="6">
+        <v>12.904717853839038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="4">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="4">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="4">
+        <v>224</v>
+      </c>
+      <c r="C38" s="4">
+        <v>40</v>
+      </c>
+      <c r="D38" s="4">
+        <f>B38-C38</f>
+        <v>184</v>
+      </c>
+      <c r="E38" s="6">
+        <v>12.210915818686402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4">
+        <v>120</v>
+      </c>
+      <c r="C39" s="4">
+        <v>93</v>
+      </c>
+      <c r="D39" s="4">
+        <f>B39-C39</f>
+        <v>27</v>
+      </c>
+      <c r="E39" s="6">
+        <v>9.8519888991674378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="4">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="4">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="B40" s="4">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="C40" s="4">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4">
+        <f>B40-C40</f>
+        <v>192</v>
+      </c>
+      <c r="E40" s="6">
+        <v>9.4357076780758575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="4">
+        <v>130</v>
+      </c>
+      <c r="C41" s="4">
+        <v>74</v>
+      </c>
+      <c r="D41" s="4">
+        <f>B41-C41</f>
+        <v>56</v>
+      </c>
+      <c r="E41" s="6">
+        <v>9.4357076780758575</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="4">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="B42" s="4">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="C42" s="4">
+        <v>53</v>
+      </c>
+      <c r="D42" s="4">
+        <f>B42-C42</f>
+        <v>83</v>
+      </c>
+      <c r="E42" s="6">
+        <v>8.7419056429232214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="C43" s="4">
+        <v>52</v>
+      </c>
+      <c r="D43" s="4">
+        <f>B43-C43</f>
+        <v>62</v>
+      </c>
+      <c r="E43" s="6">
+        <v>7.6780758556891779</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="C44" s="4">
+        <v>63</v>
+      </c>
+      <c r="D44" s="4">
+        <f>B44-C44</f>
+        <v>27</v>
+      </c>
+      <c r="E44" s="6">
+        <v>7.0767807585568923</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="C45" s="4">
+        <v>46</v>
+      </c>
+      <c r="D45" s="4">
+        <f>B45-C45</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>4.255319148936171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B46" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="C46" s="4">
+        <v>36</v>
+      </c>
+      <c r="D46" s="4">
+        <f>B46-C46</f>
+        <v>15</v>
+      </c>
+      <c r="E46" s="6">
+        <v>4.0240518038852908</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="4">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C47" s="4">
+        <v>16</v>
+      </c>
+      <c r="D47" s="4">
+        <f>B47-C47</f>
+        <v>2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1.5726179463459762</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B57">
-    <sortCondition descending="1" ref="B1"/>
+  <sortState ref="A2:E47">
+    <sortCondition descending="1" ref="E1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
